--- a/www/IndicatorsPerCountry/Syria_GDPperCapita_TerritorialRef_1967_2012_CCode_760.xlsx
+++ b/www/IndicatorsPerCountry/Syria_GDPperCapita_TerritorialRef_1967_2012_CCode_760.xlsx
@@ -255,13 +255,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Syria_GDPperCapita_TerritorialRef_1967_2012_CCode_760.xlsx
+++ b/www/IndicatorsPerCountry/Syria_GDPperCapita_TerritorialRef_1967_2012_CCode_760.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="89">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,196 +36,214 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>658</t>
+    <t>1084</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>844</t>
-  </si>
-  <si>
-    <t>1350</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2264</t>
-  </si>
-  <si>
-    <t>2786</t>
-  </si>
-  <si>
-    <t>3084</t>
-  </si>
-  <si>
-    <t>3453</t>
-  </si>
-  <si>
-    <t>3039</t>
-  </si>
-  <si>
-    <t>3508</t>
-  </si>
-  <si>
-    <t>3627</t>
-  </si>
-  <si>
-    <t>3062</t>
-  </si>
-  <si>
-    <t>3023</t>
-  </si>
-  <si>
-    <t>3168</t>
-  </si>
-  <si>
-    <t>3796</t>
-  </si>
-  <si>
-    <t>3673</t>
-  </si>
-  <si>
-    <t>3637</t>
-  </si>
-  <si>
-    <t>3512</t>
-  </si>
-  <si>
-    <t>3139</t>
-  </si>
-  <si>
-    <t>3291</t>
-  </si>
-  <si>
-    <t>3306</t>
-  </si>
-  <si>
-    <t>3801</t>
-  </si>
-  <si>
-    <t>3540</t>
-  </si>
-  <si>
-    <t>3759</t>
-  </si>
-  <si>
-    <t>4544</t>
-  </si>
-  <si>
-    <t>4017</t>
-  </si>
-  <si>
-    <t>4821</t>
-  </si>
-  <si>
-    <t>5570</t>
-  </si>
-  <si>
-    <t>5976</t>
-  </si>
-  <si>
-    <t>5705</t>
-  </si>
-  <si>
-    <t>5998</t>
-  </si>
-  <si>
-    <t>6010</t>
-  </si>
-  <si>
-    <t>6508</t>
-  </si>
-  <si>
-    <t>6891</t>
-  </si>
-  <si>
-    <t>6786</t>
-  </si>
-  <si>
-    <t>6638</t>
-  </si>
-  <si>
-    <t>6143</t>
-  </si>
-  <si>
-    <t>6290</t>
-  </si>
-  <si>
-    <t>5772</t>
-  </si>
-  <si>
-    <t>5681</t>
-  </si>
-  <si>
-    <t>6219</t>
-  </si>
-  <si>
-    <t>5480</t>
-  </si>
-  <si>
-    <t>5700.68470294</t>
-  </si>
-  <si>
-    <t>6100.79847921</t>
-  </si>
-  <si>
-    <t>6712.47264704</t>
-  </si>
-  <si>
-    <t>7012.98919734</t>
-  </si>
-  <si>
-    <t>7203.04328681</t>
-  </si>
-  <si>
-    <t>7390.21012004</t>
-  </si>
-  <si>
-    <t>7406.84599888</t>
-  </si>
-  <si>
-    <t>7133.51179742</t>
-  </si>
-  <si>
-    <t>7334.62579433</t>
-  </si>
-  <si>
-    <t>6924.69316389</t>
-  </si>
-  <si>
-    <t>6906.27492453</t>
-  </si>
-  <si>
-    <t>6984.92500601</t>
-  </si>
-  <si>
-    <t>7219.47848216</t>
-  </si>
-  <si>
-    <t>6906.54200835</t>
-  </si>
-  <si>
-    <t>7211.71058334</t>
-  </si>
-  <si>
-    <t>7484.21648836</t>
-  </si>
-  <si>
-    <t>7552.64094233</t>
-  </si>
-  <si>
-    <t>7527.37981347</t>
-  </si>
-  <si>
-    <t>7555.62494845</t>
-  </si>
-  <si>
-    <t>7841.25121296</t>
-  </si>
-  <si>
-    <t>7951.96310268</t>
+    <t>1403</t>
+  </si>
+  <si>
+    <t>2072</t>
+  </si>
+  <si>
+    <t>3838</t>
+  </si>
+  <si>
+    <t>3609</t>
+  </si>
+  <si>
+    <t>4441</t>
+  </si>
+  <si>
+    <t>4916</t>
+  </si>
+  <si>
+    <t>5504</t>
+  </si>
+  <si>
+    <t>4844</t>
+  </si>
+  <si>
+    <t>5592</t>
+  </si>
+  <si>
+    <t>5781</t>
+  </si>
+  <si>
+    <t>4881</t>
+  </si>
+  <si>
+    <t>4819</t>
+  </si>
+  <si>
+    <t>5050</t>
+  </si>
+  <si>
+    <t>6051</t>
+  </si>
+  <si>
+    <t>5855</t>
+  </si>
+  <si>
+    <t>5797</t>
+  </si>
+  <si>
+    <t>5598</t>
+  </si>
+  <si>
+    <t>5004</t>
+  </si>
+  <si>
+    <t>5246</t>
+  </si>
+  <si>
+    <t>5270</t>
+  </si>
+  <si>
+    <t>6059</t>
+  </si>
+  <si>
+    <t>5643</t>
+  </si>
+  <si>
+    <t>5992</t>
+  </si>
+  <si>
+    <t>7243</t>
+  </si>
+  <si>
+    <t>6403</t>
+  </si>
+  <si>
+    <t>7685</t>
+  </si>
+  <si>
+    <t>8878</t>
+  </si>
+  <si>
+    <t>9526</t>
+  </si>
+  <si>
+    <t>9094</t>
+  </si>
+  <si>
+    <t>9561</t>
+  </si>
+  <si>
+    <t>9580</t>
+  </si>
+  <si>
+    <t>10374</t>
+  </si>
+  <si>
+    <t>10984</t>
+  </si>
+  <si>
+    <t>10817</t>
+  </si>
+  <si>
+    <t>10581</t>
+  </si>
+  <si>
+    <t>9792</t>
+  </si>
+  <si>
+    <t>10026</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>9055</t>
+  </si>
+  <si>
+    <t>9913</t>
+  </si>
+  <si>
+    <t>8735</t>
+  </si>
+  <si>
+    <t>9087</t>
+  </si>
+  <si>
+    <t>9424.12259076452</t>
+  </si>
+  <si>
+    <t>10002.275987573</t>
+  </si>
+  <si>
+    <t>10072.4865364936</t>
+  </si>
+  <si>
+    <t>9969.37404509101</t>
+  </si>
+  <si>
+    <t>9856.48311325427</t>
+  </si>
+  <si>
+    <t>9517.3721795319</t>
+  </si>
+  <si>
+    <t>8826.77352349446</t>
+  </si>
+  <si>
+    <t>8742.97356066853</t>
+  </si>
+  <si>
+    <t>7960.29181725339</t>
+  </si>
+  <si>
+    <t>7668.07165178925</t>
+  </si>
+  <si>
+    <t>7509.3042432845</t>
+  </si>
+  <si>
+    <t>7529.70161488188</t>
+  </si>
+  <si>
+    <t>6986.52380066229</t>
+  </si>
+  <si>
+    <t>7051.42847759348</t>
+  </si>
+  <si>
+    <t>7037.71822979878</t>
+  </si>
+  <si>
+    <t>6901.77786540411</t>
+  </si>
+  <si>
+    <t>6779.53709553894</t>
+  </si>
+  <si>
+    <t>6600.37871990147</t>
+  </si>
+  <si>
+    <t>6586.51834804181</t>
+  </si>
+  <si>
+    <t>6520.61227745012</t>
+  </si>
+  <si>
+    <t>5979</t>
+  </si>
+  <si>
+    <t>4829</t>
+  </si>
+  <si>
+    <t>4124</t>
+  </si>
+  <si>
+    <t>3536</t>
+  </si>
+  <si>
+    <t>3049</t>
+  </si>
+  <si>
+    <t>3091</t>
   </si>
   <si>
     <t>Description</t>
@@ -3576,6 +3594,108 @@
         <v>70</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>760.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>760.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>760.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>760.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>760.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>760.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3591,50 +3711,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
